--- a/data/trans_camb/P29A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Clase-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,58</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,85</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
         </is>
       </c>
     </row>
@@ -579,17 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -12,35</t>
+          <t>-1,79; 11,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -20,76</t>
+          <t>-0,08; 13,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -16,96</t>
+          <t>-9,67; 3,21</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 11,56</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 11,97</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 3,48</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 8,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 9,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 0,29</t>
         </is>
       </c>
     </row>
@@ -602,17 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,85%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,25%</t>
+          <t>-5,09%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-8,65%</t>
         </is>
       </c>
     </row>
@@ -625,17 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -12,43</t>
+          <t>-2,84; 21,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -20,76</t>
+          <t>-0,22; 23,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,01; -17,08</t>
+          <t>-15,29; 5,99</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; 32,87</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 34,23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-24,98; 9,7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 18,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 20,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 0,53</t>
         </is>
       </c>
     </row>
@@ -652,17 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-17,48</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-28,18</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-22,0</t>
+          <t>-12,2</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11,15</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-6,99</t>
         </is>
       </c>
     </row>
@@ -675,17 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -13,05</t>
+          <t>-8,65; 5,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,91; -21,8</t>
+          <t>-4,32; 10,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -18,44</t>
+          <t>-19,57; -5,06</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 6,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 18,01</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 4,07</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 5,7</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 12,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; -1,57</t>
         </is>
       </c>
     </row>
@@ -698,17 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,55%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,24%</t>
+          <t>-20,58%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-7,58%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
         </is>
       </c>
     </row>
@@ -721,17 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,81; -13,17</t>
+          <t>-13,8; 10,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,59; -22,49</t>
+          <t>-6,78; 18,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,27; -18,78</t>
+          <t>-31,08; -9,47</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-20,29; 19,21</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 51,77</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-22,69; 12,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 12,43</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 26,34</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-23,11; -3,46</t>
         </is>
       </c>
     </row>
@@ -748,17 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-56,26</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,98</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-53,21</t>
+          <t>-28,44</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-8,02</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-9,36</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-23,59</t>
         </is>
       </c>
     </row>
@@ -771,17 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-86,24; -13,38</t>
+          <t>-8,68; 3,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-40,04; -17,35</t>
+          <t>-3,36; 8,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-82,9; -15,95</t>
+          <t>-49,48; -8,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; 0,92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-12,54; 8,59</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; -1,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,18; -0,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 6,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-42,85; -9,42</t>
         </is>
       </c>
     </row>
@@ -794,17 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-56,94%</t>
+          <t>-4,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,16%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-54,06%</t>
+          <t>-47,39%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-23,83%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-5,43%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-27,83%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-43,92%</t>
         </is>
       </c>
     </row>
@@ -817,17 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,67; -13,54</t>
+          <t>-13,63; 6,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,7; -18,83</t>
+          <t>-5,36; 14,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,52; -16,26</t>
+          <t>-79,49; -15,27</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-45,35; 2,91</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-32,93; 31,65</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; -4,33</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; -0,88</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 12,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-76,98; -17,57</t>
         </is>
       </c>
     </row>
@@ -844,17 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,15</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,66</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,84</t>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8,41</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16,73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
         </is>
       </c>
     </row>
@@ -867,17 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -10,78</t>
+          <t>-2,39; 5,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,53; -0,58</t>
+          <t>-0,71; 7,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -7,04</t>
+          <t>-6,19; 2,76</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 4,93</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 12,95</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 44,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 3,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 7,9</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 19,29</t>
         </is>
       </c>
     </row>
@@ -890,17 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,16%</t>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
         </is>
       </c>
     </row>
@@ -913,17 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -11,01</t>
+          <t>-4,58; 11,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,66; -0,63</t>
+          <t>-1,32; 15,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -7,2</t>
+          <t>-11,53; 5,55</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-15,21; 21,12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 55,55</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 191,69</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 8,5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 19,82</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 47,55</t>
         </is>
       </c>
     </row>
@@ -940,17 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-12,4</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-46,13</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-30,02</t>
+          <t>-9,5</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-7,03</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-8,65</t>
         </is>
       </c>
     </row>
@@ -963,17 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -8,55</t>
+          <t>-8,53; 5,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-72,73; -27,6</t>
+          <t>-16,31; -3,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-53,54; -18,85</t>
+          <t>-16,31; -1,94</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 2,66</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 5,75</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; -2,4</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 2,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 2,72</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-14,11; -4,01</t>
         </is>
       </c>
     </row>
@@ -986,17 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-12,48%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-48,91%</t>
+          <t>-16,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-30,82%</t>
+          <t>-16,25%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-31,06%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-3,25%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-23,82%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,62; -8,7</t>
+          <t>-13,63; 9,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,08; -29,44</t>
+          <t>-26,76; -6,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,82; -19,38</t>
+          <t>-26,41; -3,84</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-25,85; 13,01</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 28,64</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-49,41; -12,34</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-13,97; 8,72</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,85; 8,33</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-37,12; -11,96</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-35,57</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-26,32</t>
+          <t>-5,64</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-26,55; -1,21</t>
+          <t>-3,52; 13,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-43,6; -27,85</t>
+          <t>0,35; 17,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-34,0; -20,01</t>
+          <t>-17,39; 7,19</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 8,36</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 9,96</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 3,6</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 8,41</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 10,91</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 4,27</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-11,09%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-36,04%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-27,04%</t>
+          <t>-12,52%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>31,01%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>42,74%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>23,3%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-27,67; -1,22</t>
+          <t>-6,75; 32,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,25; -28,23</t>
+          <t>0,72; 42,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,9; -20,72</t>
+          <t>-36,38; 16,5</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>10,38; 56,8</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 70,13</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; 24,06</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 41,95</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>17,93; 55,02</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 21,18</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-24,47</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-27,12</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-25,62</t>
+          <t>-9,1</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-46,3; -13,97</t>
+          <t>-1,33; 3,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-36,45; -15,62</t>
+          <t>-0,33; 4,57</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-40,94; -18,82</t>
+          <t>-18,18; -4,51</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 3,3</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 8,39</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 18,64</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 2,73</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 5,83</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 3,21</t>
         </is>
       </c>
     </row>
@@ -1178,17 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-24,79%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-27,91%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-26,1%</t>
+          <t>-16,56%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>25,29%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-6,8%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,1; -14,19</t>
+          <t>-2,36; 6,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-37,53; -16,05</t>
+          <t>-0,6; 8,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,81; -19,21</t>
+          <t>-33,34; -8,28</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 13,93</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 36,19</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 78,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 6,96</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 15,05</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 8,29</t>
         </is>
       </c>
     </row>
@@ -1223,10 +2139,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P29A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
